--- a/data/case1/11/P2_2.xlsx
+++ b/data/case1/11/P2_2.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.35993704507188795</v>
+        <v>0.41603216931191866</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999992179000685</v>
+        <v>-0.0099999997604491853</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999992071536639</v>
+        <v>-0.0089999997539074172</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999801187045</v>
+        <v>-0.011999999931362026</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.04330464297852199</v>
+        <v>-0.0059999997579804898</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999991943122666</v>
+        <v>-0.005999999751594487</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.01999999905233274</v>
+        <v>-0.019999999705488491</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.01999999904779326</v>
+        <v>-0.019999999705315297</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999991841168665</v>
+        <v>-0.0059999997520669979</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999991817605292</v>
+        <v>-0.0059999997533424221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.036905962800187098</v>
+        <v>-0.0044999997583019535</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999991833388222</v>
+        <v>0.076103156626948998</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999991935484331</v>
+        <v>-0.005999999750101459</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.068721546731567607</v>
+        <v>-0.011999999729194855</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999991949686304</v>
+        <v>-0.0059999997479742717</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999991922725648</v>
+        <v>-0.0059999997471233968</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999991888108894</v>
+        <v>-0.0059999997459856402</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.008999999157996541</v>
+        <v>-0.0089999997358711781</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999992256188932</v>
+        <v>-0.02939299793582606</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999991967326665</v>
+        <v>-0.0089999997613716687</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999991900087117</v>
+        <v>-0.00899999976101995</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.081138420943198231</v>
+        <v>-0.0089999997607748128</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999991997666839</v>
+        <v>-0.058602940278441373</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999998856536713</v>
+        <v>-0.082120671537858847</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998849973075</v>
+        <v>-0.041999999632198914</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999991920349771</v>
+        <v>-0.0059999997508590752</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999991874652991</v>
+        <v>-0.0059999997493922486</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999991695667276</v>
+        <v>-0.0059999997436639418</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999097803027</v>
+        <v>-0.011999999720096355</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999011603098</v>
+        <v>-0.019999999691934889</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999052816904</v>
+        <v>-0.014999999705553435</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999998991423574</v>
+        <v>-0.020999999685407111</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999991410775166</v>
+        <v>-0.0059999997344588607</v>
       </c>
     </row>
   </sheetData>
